--- a/src/main/resources/resource/MapResource.xlsx
+++ b/src/main/resources/resource/MapResource.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>mapId</t>
   </si>
@@ -34,6 +34,9 @@
     <t>y</t>
   </si>
   <si>
+    <t>sceneType</t>
+  </si>
+  <si>
     <t>区庄</t>
   </si>
   <si>
@@ -59,6 +62,12 @@
   </si>
   <si>
     <t>团一大</t>
+  </si>
+  <si>
+    <t>副本场景1</t>
+  </si>
+  <si>
+    <t>副本场景2</t>
   </si>
 </sst>
 </file>
@@ -67,8 +76,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -88,24 +97,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,77 +119,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -201,9 +135,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,6 +220,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -233,19 +242,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,43 +338,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,19 +362,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,7 +380,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,19 +392,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,13 +404,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,37 +416,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,45 +433,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -483,10 +453,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -501,11 +478,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,10 +539,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -542,16 +551,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -560,115 +569,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -994,19 +1003,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="22.2222222222222" customWidth="1"/>
     <col min="3" max="4" width="17.2222222222222" customWidth="1"/>
+    <col min="7" max="7" width="21.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1025,19 +1035,22 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" ht="17" customHeight="1" spans="1:6">
+    <row r="2" ht="17" customHeight="1" spans="1:7">
       <c r="A2">
         <v>2001</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1">
         <v>2002</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1045,19 +1058,22 @@
       <c r="F2">
         <v>0</v>
       </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:6">
+    <row r="3" ht="18" customHeight="1" spans="1:7">
       <c r="A3">
         <v>2002</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1065,19 +1081,22 @@
       <c r="F3">
         <v>0</v>
       </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" ht="21" customHeight="1" spans="1:6">
+    <row r="4" ht="21" customHeight="1" spans="1:7">
       <c r="A4">
         <v>2003</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1085,25 +1104,71 @@
       <c r="F4">
         <v>0</v>
       </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" ht="18" customHeight="1" spans="1:6">
+    <row r="5" ht="18" customHeight="1" spans="1:7">
       <c r="A5">
         <v>2004</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1">
         <v>2003</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>3001</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>1002</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>3002</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>1003</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resource/MapResource.xlsx
+++ b/src/main/resources/resource/MapResource.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>mapId</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>副本场景2</t>
+  </si>
+  <si>
+    <t>角斗场</t>
   </si>
 </sst>
 </file>
@@ -75,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -89,6 +92,104 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -98,16 +199,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -121,113 +223,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,19 +251,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,61 +383,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,91 +395,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,33 +450,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,11 +486,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,16 +507,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -551,133 +554,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1003,13 +1006,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="22.2222222222222" customWidth="1"/>
     <col min="3" max="4" width="17.2222222222222" customWidth="1"/>
@@ -1171,6 +1174,26 @@
         <v>1</v>
       </c>
     </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>4001</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>1003</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/src/main/resources/resource/MapResource.xlsx
+++ b/src/main/resources/resource/MapResource.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>mapId</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>duration</t>
   </si>
   <si>
     <t>sceneType</t>
@@ -78,10 +81,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -92,8 +95,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -101,40 +147,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -143,27 +168,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -175,8 +184,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,22 +201,31 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,29 +238,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -245,187 +248,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,32 +442,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,6 +495,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -508,31 +525,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,10 +545,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -554,133 +557,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1006,20 +1009,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="22.2222222222222" customWidth="1"/>
     <col min="3" max="4" width="17.2222222222222" customWidth="1"/>
-    <col min="7" max="7" width="21.4444444444444" customWidth="1"/>
+    <col min="8" max="8" width="21.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1041,19 +1044,22 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" ht="17" customHeight="1" spans="1:7">
+    <row r="2" ht="17" customHeight="1" spans="1:8">
       <c r="A2">
         <v>2001</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1">
         <v>2002</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1061,22 +1067,22 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:7">
+    <row r="3" ht="18" customHeight="1" spans="1:8">
       <c r="A3">
         <v>2002</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1084,22 +1090,22 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="21" customHeight="1" spans="1:7">
+    <row r="4" ht="21" customHeight="1" spans="1:8">
       <c r="A4">
         <v>2003</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1107,22 +1113,22 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="18" customHeight="1" spans="1:7">
+    <row r="5" ht="18" customHeight="1" spans="1:8">
       <c r="A5">
         <v>2004</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1">
         <v>2003</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1130,16 +1136,16 @@
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>3001</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>1002</v>
@@ -1151,15 +1157,18 @@
         <v>0</v>
       </c>
       <c r="G6">
+        <v>60000</v>
+      </c>
+      <c r="H6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>3002</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7">
         <v>1003</v>
@@ -1171,15 +1180,18 @@
         <v>0</v>
       </c>
       <c r="G7">
+        <v>60000</v>
+      </c>
+      <c r="H7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>4001</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8">
         <v>1003</v>
@@ -1190,7 +1202,7 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0</v>
       </c>
     </row>

--- a/src/main/resources/resource/MapResource.xlsx
+++ b/src/main/resources/resource/MapResource.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>mapId</t>
   </si>
@@ -40,6 +40,9 @@
     <t>sceneType</t>
   </si>
   <si>
+    <t>rewardString</t>
+  </si>
+  <si>
     <t>区庄</t>
   </si>
   <si>
@@ -68,6 +71,9 @@
   </si>
   <si>
     <t>副本场景1</t>
+  </si>
+  <si>
+    <t>[ {"type": "ITEM_REWARD", "value": "2:1002"}]</t>
   </si>
   <si>
     <t>副本场景2</t>
@@ -81,10 +87,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -96,20 +102,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -126,53 +124,47 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -184,16 +176,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,31 +193,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,6 +206,44 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -248,187 +254,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,20 +450,39 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,21 +520,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -525,17 +535,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,10 +551,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -557,133 +563,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1009,20 +1015,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="7"/>
   <cols>
     <col min="2" max="2" width="22.2222222222222" customWidth="1"/>
     <col min="3" max="4" width="17.2222222222222" customWidth="1"/>
     <col min="8" max="8" width="21.4444444444444" customWidth="1"/>
+    <col min="9" max="9" width="40.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1046,6 +1053,9 @@
       </c>
       <c r="H1" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" ht="17" customHeight="1" spans="1:8">
@@ -1053,13 +1063,13 @@
         <v>2001</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1">
         <v>2002</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1076,13 +1086,13 @@
         <v>2002</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1099,13 +1109,13 @@
         <v>2003</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1122,13 +1132,13 @@
         <v>2004</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1">
         <v>2003</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1140,12 +1150,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>3001</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6">
         <v>1002</v>
@@ -1162,13 +1172,16 @@
       <c r="H6">
         <v>1</v>
       </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>3002</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>1003</v>
@@ -1184,6 +1197,9 @@
       </c>
       <c r="H7">
         <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1191,7 +1207,7 @@
         <v>4001</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <v>1003</v>

--- a/src/main/resources/resource/MapResource.xlsx
+++ b/src/main/resources/resource/MapResource.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>mapId</t>
   </si>
@@ -43,6 +43,9 @@
     <t>rewardString</t>
   </si>
   <si>
+    <t>cd</t>
+  </si>
+  <si>
     <t>区庄</t>
   </si>
   <si>
@@ -80,6 +83,18 @@
   </si>
   <si>
     <t>角斗场</t>
+  </si>
+  <si>
+    <t>地狱一层</t>
+  </si>
+  <si>
+    <t>地狱二层</t>
+  </si>
+  <si>
+    <t>地狱三层</t>
+  </si>
+  <si>
+    <t>地狱四层</t>
   </si>
 </sst>
 </file>
@@ -87,10 +102,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -102,6 +117,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -110,6 +140,84 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,7 +232,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,114 +240,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,25 +269,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,19 +377,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,7 +389,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,90 +425,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -416,25 +443,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,15 +460,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -487,15 +493,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -515,7 +512,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,6 +534,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -551,10 +566,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -563,19 +578,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,112 +599,112 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1015,13 +1030,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="2" max="2" width="22.2222222222222" customWidth="1"/>
     <col min="3" max="4" width="17.2222222222222" customWidth="1"/>
@@ -1029,7 +1044,7 @@
     <col min="9" max="9" width="40.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1057,19 +1072,22 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" ht="17" customHeight="1" spans="1:8">
+    <row r="2" ht="17" customHeight="1" spans="1:10">
       <c r="A2">
         <v>2001</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1">
         <v>2002</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1080,19 +1098,22 @@
       <c r="H2">
         <v>0</v>
       </c>
+      <c r="J2">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:8">
+    <row r="3" ht="18" customHeight="1" spans="1:10">
       <c r="A3">
         <v>2002</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1103,19 +1124,22 @@
       <c r="H3">
         <v>0</v>
       </c>
+      <c r="J3">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="4" ht="21" customHeight="1" spans="1:8">
+    <row r="4" ht="21" customHeight="1" spans="1:10">
       <c r="A4">
         <v>2003</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1126,19 +1150,22 @@
       <c r="H4">
         <v>0</v>
       </c>
+      <c r="J4">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="5" ht="18" customHeight="1" spans="1:8">
+    <row r="5" ht="18" customHeight="1" spans="1:10">
       <c r="A5">
         <v>2004</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1">
         <v>2003</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1149,15 +1176,18 @@
       <c r="H5">
         <v>0</v>
       </c>
+      <c r="J5">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>3001</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1">
         <v>1002</v>
       </c>
       <c r="E6">
@@ -1173,17 +1203,20 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="J6">
+        <v>20000</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>3002</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1">
         <v>1003</v>
       </c>
       <c r="E7">
@@ -1199,17 +1232,20 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="J7">
+        <v>20000</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>4001</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1">
         <v>1003</v>
       </c>
       <c r="E8">
@@ -1220,6 +1256,137 @@
       </c>
       <c r="H8">
         <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>5001</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5002</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1003</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>60000</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>5002</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5003</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1003</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>60000</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>5003</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5004</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1003</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>60000</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>5004</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1003</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>60000</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resource/MapResource.xlsx
+++ b/src/main/resources/resource/MapResource.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>mapId</t>
   </si>
@@ -46,6 +46,9 @@
     <t>cd</t>
   </si>
   <si>
+    <t>checkPointString</t>
+  </si>
+  <si>
     <t>区庄</t>
   </si>
   <si>
@@ -77,6 +80,9 @@
   </si>
   <si>
     <t>[ {"type": "ITEM_REWARD", "value": "2:1002"}]</t>
+  </si>
+  <si>
+    <t>[{"round":1,"monsterId":3001,"quantity":1,"rewardDefs":[{"type":"ITEM_REWARD","value":"2:1002"}]},{"round":2,"monsterId":3002,"quantity":2,"rewardDefs":[{"type":"ITEM_REWARD","value":"2:1002"}]}]</t>
   </si>
   <si>
     <t>副本场景2</t>
@@ -102,10 +108,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -116,10 +122,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -132,6 +163,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -139,6 +185,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -146,78 +206,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,20 +265,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -269,187 +275,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,21 +499,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -541,6 +532,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -566,145 +572,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1030,10 +1036,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1042,9 +1048,10 @@
     <col min="3" max="4" width="17.2222222222222" customWidth="1"/>
     <col min="8" max="8" width="21.4444444444444" customWidth="1"/>
     <col min="9" max="9" width="40.1111111111111" customWidth="1"/>
+    <col min="11" max="11" width="35.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1074,6 +1081,9 @@
       </c>
       <c r="J1" t="s">
         <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" ht="17" customHeight="1" spans="1:10">
@@ -1081,13 +1091,13 @@
         <v>2001</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1">
         <v>2002</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1107,13 +1117,13 @@
         <v>2002</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1133,13 +1143,13 @@
         <v>2003</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1159,13 +1169,13 @@
         <v>2004</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1">
         <v>2003</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1180,12 +1190,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>3001</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1">
         <v>1002</v>
@@ -1197,16 +1207,19 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>60000</v>
+        <v>90000</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J6">
         <v>20000</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1214,7 +1227,7 @@
         <v>3002</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1">
         <v>1003</v>
@@ -1232,7 +1245,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J7">
         <v>20000</v>
@@ -1243,7 +1256,7 @@
         <v>4001</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1">
         <v>1003</v>
@@ -1258,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J8">
         <v>-1</v>
@@ -1269,7 +1282,7 @@
         <v>5001</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1">
         <v>5002</v>
@@ -1290,7 +1303,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J9">
         <v>-1</v>
@@ -1301,7 +1314,7 @@
         <v>5002</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1">
         <v>5003</v>
@@ -1322,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J10">
         <v>-1</v>
@@ -1333,7 +1346,7 @@
         <v>5003</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1">
         <v>5004</v>
@@ -1354,7 +1367,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J11">
         <v>-1</v>
@@ -1365,7 +1378,7 @@
         <v>5004</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D12" s="1">
         <v>1003</v>
@@ -1383,7 +1396,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J12">
         <v>-1</v>
